--- a/ExcelDataExporter.Unity/GameData/EnemyData.xlsx
+++ b/ExcelDataExporter.Unity/GameData/EnemyData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t xml:space="preserve">namespace=TestGame.BattleSystem</t>
   </si>
@@ -67,10 +67,13 @@
     <t xml:space="preserve">startPos[1].y</t>
   </si>
   <si>
-    <t xml:space="preserve">reward.itemId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reward.count</t>
+    <t xml:space="preserve">reward[0].itemId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward[0].count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward[0].random</t>
   </si>
   <si>
     <t xml:space="preserve">bool</t>
@@ -112,10 +115,16 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
+    <t xml:space="preserve">1,2,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">2,5,8,14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,3,4</t>
   </si>
   <si>
     <t xml:space="preserve">2,5,8,15</t>
@@ -240,16 +249,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="15.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,7 +289,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -315,84 +326,90 @@
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
@@ -401,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>5</v>
@@ -410,10 +427,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>6003</v>
@@ -421,16 +438,19 @@
       <c r="L6" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1001</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
@@ -439,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>6</v>
@@ -448,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>6004</v>
@@ -459,16 +479,19 @@
       <c r="L7" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
@@ -477,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>7</v>
@@ -486,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>6005</v>
@@ -500,13 +523,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1003</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2</v>
@@ -515,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>8</v>
@@ -524,10 +547,10 @@
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>6006</v>
@@ -535,16 +558,19 @@
       <c r="L9" s="2" t="n">
         <v>8</v>
       </c>
+      <c r="M9" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1004</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>3</v>
@@ -553,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>9</v>
@@ -562,10 +588,10 @@
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>6007</v>
